--- a/用例数据/沪A/基金通1.0/持仓对账/测试结果.xlsx
+++ b/用例数据/沪A/基金通1.0/持仓对账/测试结果.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="fundauditingerror" sheetId="1" r:id="rId1"/>
@@ -485,12 +485,15 @@
   <dimension ref="A1:R23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -546,7 +549,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -602,7 +605,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -658,7 +661,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
@@ -711,7 +714,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -764,7 +767,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -820,7 +823,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>41</v>
       </c>
@@ -876,22 +879,22 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
